--- a/states/El Hierro (Spagna).xlsx
+++ b/states/El Hierro (Spagna).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>timestamp</t>
   </si>
@@ -148,10 +148,25 @@
     <t>exchange_import</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>85%</t>
+    <t>21:02 13-04-2022</t>
+  </si>
+  <si>
+    <t>23:20 13-04-2022</t>
+  </si>
+  <si>
+    <t>23:32 13-04-2022</t>
+  </si>
+  <si>
+    <t>23:51 13-04-2022</t>
+  </si>
+  <si>
+    <t>00:22 14-04-2022</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>89%</t>
   </si>
 </sst>
 </file>
@@ -509,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AR6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -650,92 +665,376 @@
       </c>
     </row>
     <row r="2" spans="1:44">
-      <c r="B2" t="s">
+      <c r="A2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:44">
+      <c r="A3" t="s">
         <v>45</v>
       </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2">
-        <v>7070</v>
-      </c>
-      <c r="F2">
-        <v>12.8</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
+      <c r="B3">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>9070</v>
+      </c>
+      <c r="F3">
+        <v>12.6</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
         <v>11500</v>
       </c>
-      <c r="T2">
-        <v>5979.81</v>
-      </c>
-      <c r="U2">
-        <v>1.1</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
+      <c r="T3">
+        <v>8029.67</v>
+      </c>
+      <c r="U3">
+        <v>1.47</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
         <v>11300</v>
       </c>
-      <c r="AC2">
-        <v>-750.13</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
+      <c r="AC3">
+        <v>-2180.43</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
         <v>11800</v>
       </c>
-      <c r="AL2">
-        <v>1080.3</v>
-      </c>
-      <c r="AM2">
-        <v>11.7</v>
+      <c r="AL3">
+        <v>1030.35</v>
+      </c>
+      <c r="AM3">
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>9070</v>
+      </c>
+      <c r="F4">
+        <v>12.6</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>11500</v>
+      </c>
+      <c r="T4">
+        <v>8029.67</v>
+      </c>
+      <c r="U4">
+        <v>1.47</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>11300</v>
+      </c>
+      <c r="AC4">
+        <v>-2180.43</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>11800</v>
+      </c>
+      <c r="AL4">
+        <v>1030.35</v>
+      </c>
+      <c r="AM4">
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>9070</v>
+      </c>
+      <c r="F5">
+        <v>12.6</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>11500</v>
+      </c>
+      <c r="T5">
+        <v>8029.67</v>
+      </c>
+      <c r="U5">
+        <v>1.47</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>11300</v>
+      </c>
+      <c r="AC5">
+        <v>-2180.43</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>11800</v>
+      </c>
+      <c r="AL5">
+        <v>1030.35</v>
+      </c>
+      <c r="AM5">
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>9900</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>11500</v>
+      </c>
+      <c r="T6">
+        <v>8849.610000000001</v>
+      </c>
+      <c r="U6">
+        <v>1.62</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>11300</v>
+      </c>
+      <c r="AC6">
+        <v>-2770.02</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>11800</v>
+      </c>
+      <c r="AL6">
+        <v>1050.39</v>
+      </c>
+      <c r="AM6">
+        <v>11.38</v>
       </c>
     </row>
   </sheetData>

--- a/states/El Hierro (Spagna).xlsx
+++ b/states/El Hierro (Spagna).xlsx
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17:10 16-04-2022</t>
+          <t>17:37 16-04-2022</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/states/El Hierro (Spagna).xlsx
+++ b/states/El Hierro (Spagna).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AR3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,20 +661,14 @@
           <t>17:37 16-04-2022</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>442</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="B2" t="n">
+        <v>442</v>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34</v>
       </c>
       <c r="E2" t="n">
         <v>5950</v>
@@ -771,6 +765,122 @@
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>17:47 16-04-2022</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F3" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>11500</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1470.25</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>11300</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>570.01</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>11800</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>3919.86</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>42.51</v>
+      </c>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
